--- a/cbrunner/Parameters/Parameters_ByFSC.xlsx
+++ b/cbrunner/Parameters/Parameters_ByFSC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717E607A-DA97-48BB-B4B8-DF43ED50B070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1517518-6FCF-48AD-A76F-45DC6845AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -546,13 +546,28 @@
     <t>FCI under FESBC funding</t>
   </si>
   <si>
-    <t>retired</t>
-  </si>
-  <si>
     <t>TSC</t>
   </si>
   <si>
     <t>Tree Seed Centre</t>
+  </si>
+  <si>
+    <t>FIP</t>
+  </si>
+  <si>
+    <t>Forest Investment Program</t>
+  </si>
+  <si>
+    <t>Forest Investment and Reporting Branch</t>
+  </si>
+  <si>
+    <t>FED</t>
+  </si>
+  <si>
+    <t>Federal Funding</t>
+  </si>
+  <si>
+    <t>Two Billion Trees</t>
   </si>
 </sst>
 </file>
@@ -588,35 +603,20 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -689,50 +689,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,55 +1026,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="76.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="76.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4"/>
@@ -1096,25 +1085,25 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1124,25 +1113,25 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1152,25 +1141,25 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1180,25 +1169,25 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1208,23 +1197,23 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1234,25 +1223,25 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1262,27 +1251,27 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1292,23 +1281,22 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1318,25 +1306,23 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1346,27 +1332,25 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1376,27 +1360,27 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8" t="s">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1406,27 +1390,27 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1436,27 +1420,27 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8" t="s">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1466,25 +1450,25 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1494,25 +1478,27 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1522,25 +1508,25 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1550,1049 +1536,1097 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="C27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="C28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="C31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="C33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B35" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="C35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="C36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="C37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="C38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="C39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="C40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="C41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="C42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="C43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="C44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="C46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="8" t="s">
+      <c r="C47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="3" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="18" t="s">
+      <c r="C48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="B61" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="16"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="20"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="16"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="16"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="16"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H69" s="16" t="s">
+      <c r="H71" s="15" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D69">
-    <sortCondition ref="A2:A69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D70">
+    <sortCondition ref="A2:A70"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2600,15 +2634,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2DDEE06AF721C4F84DFC6CCC3312466" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bfe1f04086ac4112da9680cac604272f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56ac9dff-97dc-464e-91bf-d8fe70a7b666" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f42f36c97a62bb7c3858307fd7d0499" ns2:_="">
     <xsd:import namespace="56ac9dff-97dc-464e-91bf-d8fe70a7b666"/>
@@ -2754,15 +2779,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF948B-9D43-4BF7-BB81-F156D2B180AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE46A8F7-AFA8-4F5F-8B53-6A5EF6D2176E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2778,4 +2804,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF948B-9D43-4BF7-BB81-F156D2B180AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cbrunner/Parameters/Parameters_ByFSC.xlsx
+++ b/cbrunner/Parameters/Parameters_ByFSC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1517518-6FCF-48AD-A76F-45DC6845AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094E117-4E94-458C-A7FE-A66AC2D69404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>Two Billion Trees</t>
+  </si>
+  <si>
+    <t>CBI</t>
   </si>
 </sst>
 </file>
@@ -1026,33 +1029,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="8" max="8" width="76.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="76.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1088,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1116,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1141,26 +1144,10 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="1"/>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
@@ -1169,12 +1156,12 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -1183,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1197,12 +1184,12 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
@@ -1210,7 +1197,9 @@
       <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
@@ -1223,12 +1212,12 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
@@ -1236,9 +1225,7 @@
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
@@ -1251,12 +1238,12 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -1265,11 +1252,9 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>167</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
       <c r="I8" s="1"/>
@@ -1281,12 +1266,12 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -1295,8 +1280,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>176</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1306,12 +1296,12 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -1319,10 +1309,9 @@
       <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1332,12 +1321,12 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -1345,9 +1334,7 @@
       <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
@@ -1360,12 +1347,12 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
@@ -1374,11 +1361,9 @@
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="1"/>
@@ -1390,12 +1375,12 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
@@ -1420,12 +1405,12 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
@@ -1450,12 +1435,12 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
@@ -1464,9 +1449,11 @@
         <v>10</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="1"/>
@@ -1478,12 +1465,12 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
@@ -1492,11 +1479,9 @@
         <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="1"/>
@@ -1508,12 +1493,12 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
@@ -1521,7 +1506,9 @@
       <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1536,12 +1523,12 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>10</v>
@@ -1564,12 +1551,12 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -1583,13 +1570,14 @@
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>10</v>
@@ -1597,47 +1585,47 @@
       <c r="D20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>19</v>
@@ -1646,12 +1634,12 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>10</v>
@@ -1666,12 +1654,12 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>10</v>
@@ -1679,17 +1667,19 @@
       <c r="D24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>10</v>
@@ -1702,52 +1692,52 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>10</v>
@@ -1760,12 +1750,12 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>10</v>
@@ -1778,12 +1768,12 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>70</v>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>10</v>
@@ -1796,12 +1786,12 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>72</v>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>10</v>
@@ -1814,12 +1804,12 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>10</v>
@@ -1832,12 +1822,12 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>10</v>
@@ -1850,12 +1840,12 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>10</v>
@@ -1868,12 +1858,12 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>10</v>
@@ -1886,12 +1876,12 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>10</v>
@@ -1904,12 +1894,12 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>10</v>
@@ -1922,12 +1912,12 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>10</v>
@@ -1940,12 +1930,12 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>10</v>
@@ -1958,12 +1948,12 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>10</v>
@@ -1976,12 +1966,12 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>10</v>
@@ -1994,12 +1984,12 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>10</v>
@@ -2012,12 +2002,12 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>10</v>
@@ -2030,12 +2020,12 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>10</v>
@@ -2048,38 +2038,36 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>100</v>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>101</v>
@@ -2088,12 +2076,12 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>10</v>
@@ -2106,74 +2094,76 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
+      <c r="C49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>10</v>
@@ -2186,12 +2176,12 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>10</v>
@@ -2204,12 +2194,12 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>10</v>
@@ -2217,85 +2207,79 @@
       <c r="D53" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
+      <c r="C55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G56" s="5"/>
-      <c r="H56" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>10</v>
@@ -2304,20 +2288,22 @@
         <v>10</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G57" s="5"/>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>10</v>
@@ -2326,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>32</v>
@@ -2334,74 +2320,78 @@
       <c r="G58" s="5"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="15" t="s">
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="C61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>10</v>
@@ -2414,60 +2404,54 @@
       <c r="G62" s="5"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="C64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>10</v>
@@ -2481,19 +2465,17 @@
       <c r="F65" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="G65" s="5"/>
       <c r="H65" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>10</v>
@@ -2507,17 +2489,19 @@
       <c r="F66" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G66" s="5"/>
+      <c r="G66" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="H66" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>10</v>
@@ -2533,15 +2517,15 @@
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>10</v>
@@ -2557,15 +2541,15 @@
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>10</v>
@@ -2573,19 +2557,23 @@
       <c r="D69" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="F69" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H69" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>10</v>
@@ -2593,34 +2581,54 @@
       <c r="D70" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G70" s="5"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="5" t="s">
+      <c r="C72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5" t="s">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="H72" s="15" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2634,6 +2642,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2DDEE06AF721C4F84DFC6CCC3312466" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bfe1f04086ac4112da9680cac604272f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56ac9dff-97dc-464e-91bf-d8fe70a7b666" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f42f36c97a62bb7c3858307fd7d0499" ns2:_="">
     <xsd:import namespace="56ac9dff-97dc-464e-91bf-d8fe70a7b666"/>
@@ -2779,16 +2796,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF948B-9D43-4BF7-BB81-F156D2B180AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE46A8F7-AFA8-4F5F-8B53-6A5EF6D2176E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2804,12 +2820,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7EF948B-9D43-4BF7-BB81-F156D2B180AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>